--- a/部分名词对照.xlsx
+++ b/部分名词对照.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53062\Downloads\Omega_05_DL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53062\Documents\GitHub\Omega-no-shikai_CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7317FA-C3EC-4F0D-B154-C39F7A68A99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D777CC-387A-4FCD-94E9-71F93E229E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="3520" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="3470" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="510">
   <si>
     <t>src</t>
   </si>
@@ -628,10 +628,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>五五壹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>地点，是位于佐仓街道上的一家咖喱店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -800,10 +796,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>泰托尔贾托托利斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>专有名词，“テトルジャトートリス” 是尾張みみみ使役的 CAT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -888,18 +880,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>娜娜姆西尔 cat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ナナムシル org</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>娜娜姆西尔 org</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>鍋島竹争</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -912,10 +896,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>纳尔戴安娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>西石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1036,10 +1016,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>巴巴卡纳里亚加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>专有名词，是酒井アルコ使役的 CAT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1130,10 +1106,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>彭波罗米塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>专有名词，是五六禅使役的 CAT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1158,10 +1130,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>马拉基塔尔希希姆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>御斎串魔眼窪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1186,10 +1154,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>米哈尔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>专有名词，是八相家第二位的三春家代代继承的 CAT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1307,10 +1271,6 @@
   </si>
   <si>
     <t>地点，是饭洼家长女代代担任女掌柜的旅馆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>娜娜姆西尔 alt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1689,7 +1649,7 @@
   </si>
   <si>
     <r>
-      <t>诺特</t>
+      <t>专有名词，“ハスマリム” 是八姐妹第三位オズマ</t>
     </r>
     <r>
       <rPr>
@@ -1711,13 +1671,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>迪尤</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>专有名词，“ハスマリム” 是八姐妹第三位オズマ</t>
+      <t>イース的 CAT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>专有名词，ベール是八姐妹第八位ドレミリア</t>
     </r>
     <r>
       <rPr>
@@ -1739,13 +1699,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>イース的 CAT</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>专有名词，ベール是八姐妹第八位ドレミリア</t>
+      <t>リデル的 CAT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>专有名词，是八姐妹第四位ダーカ</t>
     </r>
     <r>
       <rPr>
@@ -1767,13 +1727,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>リデル的 CAT</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>专有名词，是八姐妹第四位ダーカ</t>
+      <t>イァンナ</t>
     </r>
     <r>
       <rPr>
@@ -1795,7 +1749,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>イァンナ</t>
+      <t>ルー的 CAT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名字，女性，ミリアム</t>
     </r>
     <r>
       <rPr>
@@ -1817,13 +1777,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ルー的 CAT</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>名字，女性，ミリアム</t>
+      <t>シュブ” 是八姐妹的第一位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ヨルド</t>
     </r>
     <r>
       <rPr>
@@ -1845,13 +1805,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>シュブ” 是八姐妹的第一位</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ヨルド</t>
+      <t>モネ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>约尔德</t>
     </r>
     <r>
       <rPr>
@@ -1873,13 +1833,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>モネ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>约尔德</t>
+      <t>莫奈</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名字，女性，“ヨルド</t>
     </r>
     <r>
       <rPr>
@@ -1901,13 +1861,242 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>莫奈</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>名字，女性，“ヨルド</t>
+      <t>モネ” 是八姐妹的第七位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿露子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪鳴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪鸣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字，男性。大神雪鳴的名。真言的大学生活中唯一的朋友</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水小月鹿音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，部分角色对雨山かれお的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，克杖对綾目姫様的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，チノ和ミルハ对飯窪現実的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，男性，チノ对飯窪源四的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，チノ和門王水对飯窪知狡的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，男性，部分角色对真言的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓氏，男性，大神雪鳴的姓，同时真言会称呼大神雪鳴为大神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，部分角色对永久卑尊的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，夏和真言对西石貴奴的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，宮岡門王水对自己的称呼，同时也是部分角色对宮岡門王水使用的称呼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，かれお对宮岡門王水的称呼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿娅梅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳伽希萨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>德蕾米莉娅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ミリアム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>シュブ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱染亚衣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，八相家第一位の綾目家が代々継承しているCAT。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，ナナムシルorgより出芽したナナムシルaltの片割れ。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，八相家第二位の三春家が代々管理している封紙。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，八相家第七位の狩屋家が代々継承しているCAT。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八重洲卯良</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奎伊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯尔贝＝萝娅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔玛祖莎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>米莉安姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舒布</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>エンドル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ファ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>イヴァ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ザラストラ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>いぬのまもり</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬守</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>エンリケ</t>
     </r>
     <r>
       <rPr>
@@ -1929,89 +2118,433 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>モネ” 是八姐妹的第七位</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿露子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪鳴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪鸣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字，男性。大神雪鳴的名。真言的大学生活中唯一的朋友</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水小月鹿音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，部分角色对雨山かれお的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，克杖对綾目姫様的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，チノ和ミルハ对飯窪現実的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，男性，チノ对飯窪源四的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，チノ和門王水对飯窪知狡的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，男性，部分角色对真言的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓氏，男性，大神雪鳴的姓，同时真言会称呼大神雪鳴为大神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，部分角色对永久卑尊的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，夏和真言对西石貴奴的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，宮岡門王水对自己的称呼，同时也是部分角色对宮岡門王水使用的称呼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，かれお对宮岡門王水的称呼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿娅梅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳伽希萨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>德蕾米莉娅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ミリアム</t>
+      <t>ファ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>恩里克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>オル</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>キラピス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基拉皮斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>古尔科蒙迈特萨希德</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>グルコモンマイトサシード</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>コモンマイトサス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四良さくや</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四良咲夜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>さくや</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咲夜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炭野ささらゑ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>塞玛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卢格尔瓦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>セマ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ルグルヴァ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ディエトロー</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪雅特洛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>テトルジャトートリセクス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰托尔贾托特里塞克斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>バダバッカナーリャグダガー</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ナルデアナ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドルミナ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>パラミアキス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕拉米亚基斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>パラミアキスフィーメイル</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>パラミアキスメイル</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖目あいる</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣目爱露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいる</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>法伊娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奥尔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ファイナ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>オル</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>フロシルカームド</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔眼の刺し手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鳥いさな</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>いさな</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>亚玛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玛亚</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	ヤーマ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マーヤー</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥栄紫波アリヰ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>アリヰ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>因八カイリ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>因八海里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>カイリ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ルナデュ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>露娜迪尤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ルー</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓氏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	リー＝ガルー</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヨォクリサリス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミルダース</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>米尔达斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペンパラミータ：マハンイーヴァナ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭帕拉米塔：马汉伊耶瓦纳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペイルホワイト：プルミャンドゥルギャイブルーム</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩尔怀特：普尔米安德尔吉艾布罗姆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ガロー</t>
     </r>
     <r>
       <rPr>
@@ -2032,53 +2565,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>シュブ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰野纱纱子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱染亚衣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，八相家第一位の綾目家が代々継承しているCAT。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，ナナムシルorgより出芽したナナムシルaltの片割れ。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，八相家第二位の三春家が代々管理している封紙。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，八相家第七位の狩屋家が代々継承しているCAT。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>八重洲卯良</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奎伊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯尔贝＝萝娅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔玛祖莎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>米莉安姆</t>
+      <t>ツェロ</t>
     </r>
     <r>
       <rPr>
@@ -2099,13 +2586,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>舒布</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>エンドル</t>
+      <t>ルー</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>嘉露</t>
     </r>
     <r>
       <rPr>
@@ -2126,653 +2613,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ファ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>イヴァ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ザラストラ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>伊娃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查拉图斯特拉</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>いぬのまもり</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>犬守</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>エンリケ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ファ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>恩里克</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>法</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>オル</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>キラピス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基拉皮斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>古尔科蒙迈特萨希德</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>グルコモンマイトサシード</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>コモンマイトサス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>四良さくや</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>四良咲夜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>さくや</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咲夜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炭野ささらゑ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炭野纱纱良江</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>塞玛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>卢格尔瓦</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>セマ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ルグルヴァ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ディエトロー</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪雅特洛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>テトルジャトートリセクス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰托尔贾托特里塞克斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>バダバッカナーリャグダガー</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴达巴卡纳利亚古达加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ナルデアナ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ドルミナ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>纳尔迪亚娜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多尔米娜</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>パラミアキス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕拉米亚基斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕拉米亚基斯菲梅伊尔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>パラミアキスフィーメイル</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>パラミアキスメイル</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕拉米亚基斯梅伊尔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>聖目あいる</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣目爱露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>あいる</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>法伊娜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>奥尔</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ファイナ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>オル</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>フロシルカームド</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔眼の刺し手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔眼刺客</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水鳥いさな</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水鸟伊佐奈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>いさな</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊佐奈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>亚玛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>玛亚</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">	ヤーマ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>マーヤー</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弥栄紫波アリヰ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弥栄紫波爱理ヰ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>アリヰ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱理ヰ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>因八カイリ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>因八海里</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>カイリ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海里</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ロヴェス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ネヘハ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>罗薇丝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>内赫哈</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ルナデュ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>露娜迪尤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ルー</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓氏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	リー＝ガルー</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>利伊 = 伽露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヨォクリサリス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>约库利萨里斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ミルダース</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>米尔达斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ペンパラミータ：マハンイーヴァナ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭帕拉米塔：马汉伊耶瓦纳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ペイルホワイト：プルミャンドゥルギャイブルーム</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔怀特：普尔米安德尔吉艾布罗姆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ガロー</t>
+      <t>赛萝</t>
     </r>
     <r>
       <rPr>
@@ -2793,7 +2634,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ツェロ</t>
+      <t>洛</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛萝洛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗洛希尔克阿姆德</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊莎莉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ヴィヴ</t>
     </r>
     <r>
       <rPr>
@@ -2814,13 +2673,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ルー</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>嘉露</t>
+      <t>アヴァ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>维芙</t>
     </r>
     <r>
       <rPr>
@@ -2841,7 +2700,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>赛萝</t>
+      <t>艾娃</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>恩多尔</t>
     </r>
     <r>
       <rPr>
@@ -2862,25 +2727,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>洛</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛萝洛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗洛希尔克阿姆德</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊莎莉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ヴィヴ</t>
+      <t>法</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，男性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>オズマ</t>
     </r>
     <r>
       <rPr>
@@ -2901,13 +2758,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>アヴァ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>维芙</t>
+      <t>イース</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉娅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>クララ</t>
     </r>
     <r>
       <rPr>
@@ -2928,13 +2789,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>艾娃</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>恩多尔</t>
+      <t>ミルハ</t>
     </r>
     <r>
       <rPr>
@@ -2955,17 +2810,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>法</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，男性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>オズマ</t>
+      <t>リデル</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>德蕾米莉娅・里德尔</t>
+  </si>
+  <si>
+    <t>里德尔</t>
+  </si>
+  <si>
+    <t>異羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ダーカ</t>
     </r>
     <r>
       <rPr>
@@ -2986,17 +2847,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>イース</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡莉娅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>クララ</t>
+      <t>イァンナ</t>
     </r>
     <r>
       <rPr>
@@ -3017,7 +2868,44 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ミルハ</t>
+      <t>ルー</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩山克杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩山虎兎弥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	麒麟緋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	キリアケ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮加納子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎兎弥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玖威禍を留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字，女性</t>
+  </si>
+  <si>
+    <r>
+      <t>克拉拉</t>
     </r>
     <r>
       <rPr>
@@ -3038,26 +2926,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>リデル</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>克拉拉・米尔哈・里德尔</t>
-  </si>
-  <si>
-    <t>德蕾米莉娅・里德尔</t>
-  </si>
-  <si>
-    <t>里德尔</t>
-  </si>
-  <si>
-    <t>異羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ダーカ</t>
+      <t>米尔哈</t>
     </r>
     <r>
       <rPr>
@@ -3078,7 +2947,61 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>イァンナ</t>
+      <t>里德尔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玖威禍留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮鬼怒子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>トウカ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字，女性，匠刀華的名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀祢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南ヶ斑道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南ヶ斑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳纳姆西尔 alt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳纳姆西尔 cat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳纳姆西尔 org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尔狄安娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Note</t>
     </r>
     <r>
       <rPr>
@@ -3099,32 +3022,296 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ルー</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩山克杖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩山虎兎弥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	麒麟緋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	キリアケ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommonMitosis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>艮加納子</t>
+      <t>Due</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰特尔加托特里斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴巴卡纳里亚格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>フハイ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペイル</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩尔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭帕拉米塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔眼杀手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛拉基塔尔希西姆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>米哈鲁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>术语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>午后一点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>伊娃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查拉斯特拉</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字，女</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣月シカワネ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣月鹿和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>シカワネ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>産霊みみみ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产灵咪咪咪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炭野笹良惠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰野笹子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖止睦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁止睦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>睦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科蒙迈特萨斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮加纳子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鸟伊纱奈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊纱奈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジャバンダスウォナッチァ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀祢吏子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕拉米亚基斯female</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕拉米亚基斯male</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>纳尔德亚娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多尔米纳</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百雹カゲロヲ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百雹影露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>カゲロヲ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>影露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴达巴卡纳里亚格达戈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥栄紫波爱理依</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱理依</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>约克利萨里斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李＝伽洛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ロヴェス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ネヘハ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>罗薇斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内赫哈</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3549,15 +3736,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="79.54296875" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="7" width="24" customWidth="1"/>
   </cols>
@@ -3584,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -3600,7 +3788,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3609,7 +3797,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -3621,7 +3809,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -3636,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -3648,7 +3836,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -3657,10 +3845,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -3732,7 +3920,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -3804,7 +3992,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -3864,7 +4052,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -3888,7 +4076,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -3936,7 +4124,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -3972,7 +4160,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -3993,7 +4181,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>79</v>
@@ -4008,16 +4196,16 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>82</v>
@@ -4026,10 +4214,10 @@
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>83</v>
@@ -4044,7 +4232,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -4062,13 +4250,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -4080,7 +4268,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -4092,16 +4280,16 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>93</v>
@@ -4137,7 +4325,7 @@
         <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>362</v>
+        <v>482</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>96</v>
@@ -4161,10 +4349,10 @@
         <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -4230,10 +4418,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>96</v>
@@ -4242,10 +4430,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>88</v>
@@ -4254,238 +4442,238 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>444</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>425</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>470</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>469</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>442</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>441</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>369</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>357</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>461</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>462</v>
+        <v>140</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>370</v>
+        <v>141</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>434</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>146</v>
+        <v>447</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>6</v>
@@ -4494,190 +4682,190 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>471</v>
+        <v>148</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>154</v>
+        <v>374</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>154</v>
+        <v>488</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>155</v>
+        <v>437</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>472</v>
+        <v>153</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>472</v>
+        <v>153</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>342</v>
+        <v>449</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>160</v>
+        <v>443</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>161</v>
+        <v>489</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>166</v>
+        <v>331</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>466</v>
+        <v>164</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>6</v>
@@ -4686,430 +4874,430 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>178</v>
+        <v>438</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>183</v>
+        <v>450</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>185</v>
+        <v>452</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>330</v>
+        <v>187</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>331</v>
+        <v>189</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>463</v>
+        <v>190</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>360</v>
+        <v>461</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>464</v>
+        <v>195</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>205</v>
+        <v>453</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>210</v>
+        <v>349</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>354</v>
+        <v>202</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>214</v>
+        <v>454</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>215</v>
+        <v>455</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>216</v>
+        <v>455</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>332</v>
+        <v>206</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>226</v>
+        <v>456</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>231</v>
+        <v>458</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>235</v>
+        <v>459</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>333</v>
+        <v>219</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>334</v>
+        <v>219</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>44</v>
@@ -5118,800 +5306,1054 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>255</v>
+        <v>460</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>269</v>
+        <v>462</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>278</v>
+        <v>88</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>295</v>
+        <v>464</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>295</v>
+        <v>465</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>6</v>
+        <v>267</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>296</v>
+        <v>466</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>302</v>
+        <v>6</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>304</v>
+        <v>468</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>311</v>
+        <v>469</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>377</v>
+        <v>302</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C167" t="s">
-        <v>88</v>
+        <v>302</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>380</v>
+        <v>304</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C168" t="s">
-        <v>382</v>
+        <v>302</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>384</v>
+        <v>360</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>385</v>
+        <v>306</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>388</v>
+        <v>307</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C171" t="s">
+        <v>356</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C172" t="s">
-        <v>6</v>
+        <v>329</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>392</v>
+        <v>308</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C173" t="s">
-        <v>6</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C174" t="s">
-        <v>6</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D174" s="2"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C175" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A176" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C178" t="s">
+        <v>88</v>
+      </c>
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C179" t="s">
+        <v>446</v>
+      </c>
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C180" t="s">
+        <v>446</v>
+      </c>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C181" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C182" t="s">
+        <v>369</v>
+      </c>
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C183" t="s">
+        <v>88</v>
+      </c>
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C184" t="s">
+        <v>88</v>
+      </c>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C185" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C186" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C187" t="s">
+        <v>88</v>
+      </c>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C192" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C188" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C189" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>16</v>
+        <v>380</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C194" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>441</v>
+        <v>498</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>88</v>
+        <v>496</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>449</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C210" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A215" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/部分名词对照.xlsx
+++ b/部分名词对照.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53062\Documents\GitHub\Omega-no-shikai_CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D777CC-387A-4FCD-94E9-71F93E229E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD1775-58B0-4C12-BED8-40A69B75D026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="3470" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2750" yWindow="2240" windowWidth="22340" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="522">
   <si>
     <t>src</t>
   </si>
@@ -3312,6 +3312,54 @@
   </si>
   <si>
     <t>华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハ矢士未口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽矢士未口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハ矢士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽矢士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木辛アスミ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日美</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木辛明日美</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>アスミ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圭木イノ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圭木祈乃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>イノ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈乃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3736,17 +3784,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="79.54296875" customWidth="1"/>
-    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" customWidth="1"/>
     <col min="4" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6348,6 +6396,72 @@
       </c>
       <c r="B222" s="2" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C224" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/部分名词对照.xlsx
+++ b/部分名词对照.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53062\Documents\GitHub\Omega-no-shikai_CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD1775-58B0-4C12-BED8-40A69B75D026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BB6D3C-83CD-41DD-B7B0-4A784E7C5807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2750" yWindow="2240" windowWidth="22340" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="870" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="519">
   <si>
     <t>src</t>
   </si>
@@ -293,14 +293,6 @@
   </si>
   <si>
     <t>知狡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>チズル</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小知</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1565,7 +1557,7 @@
   </si>
   <si>
     <r>
-      <t>ドレミリア</t>
+      <t>名字，女性，“鍋島竹争” 是八人姐妹第二位エンドル</t>
     </r>
     <r>
       <rPr>
@@ -1587,13 +1579,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>リデル</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>名字，女性，“鍋島竹争” 是八人姐妹第二位エンドル</t>
+      <t>ファ在该国使用的伪隐藏名</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ノート</t>
     </r>
     <r>
       <rPr>
@@ -1615,13 +1607,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ファ在该国使用的伪隐藏名</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ノート</t>
+      <t>デュー</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>专有名词，“ハスマリム” 是八姐妹第三位オズマ</t>
     </r>
     <r>
       <rPr>
@@ -1643,13 +1635,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>デュー</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>专有名词，“ハスマリム” 是八姐妹第三位オズマ</t>
+      <t>イース的 CAT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>专有名词，ベール是八姐妹第八位ドレミリア</t>
     </r>
     <r>
       <rPr>
@@ -1671,13 +1663,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>イース的 CAT</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>专有名词，ベール是八姐妹第八位ドレミリア</t>
+      <t>リデル的 CAT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>专有名词，是八姐妹第四位ダーカ</t>
     </r>
     <r>
       <rPr>
@@ -1699,13 +1691,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>リデル的 CAT</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>专有名词，是八姐妹第四位ダーカ</t>
+      <t>イァンナ</t>
     </r>
     <r>
       <rPr>
@@ -1727,7 +1713,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>イァンナ</t>
+      <t>ルー的 CAT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名字，女性，ミリアム</t>
     </r>
     <r>
       <rPr>
@@ -1749,13 +1741,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ルー的 CAT</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>名字，女性，ミリアム</t>
+      <t>シュブ” 是八姐妹的第一位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ヨルド</t>
     </r>
     <r>
       <rPr>
@@ -1777,13 +1769,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>シュブ” 是八姐妹的第一位</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ヨルド</t>
+      <t>モネ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>约尔德</t>
     </r>
     <r>
       <rPr>
@@ -1805,13 +1797,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>モネ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>约尔德</t>
+      <t>莫奈</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名字，女性，“ヨルド</t>
     </r>
     <r>
       <rPr>
@@ -1833,13 +1825,234 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>莫奈</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>名字，女性，“ヨルド</t>
+      <t>モネ” 是八姐妹的第七位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿露子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪鳴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪鸣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字，男性。大神雪鳴的名。真言的大学生活中唯一的朋友</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水小月鹿音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，部分角色对雨山かれお的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，克杖对綾目姫様的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，チノ和ミルハ对飯窪現実的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，男性，チノ对飯窪源四的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，男性，部分角色对真言的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓氏，男性，大神雪鳴的姓，同时真言会称呼大神雪鳴为大神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，部分角色对永久卑尊的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，夏和真言对西石貴奴的称呼方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，宮岡門王水对自己的称呼，同时也是部分角色对宮岡門王水使用的称呼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物昵称，女性，かれお对宮岡門王水的称呼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿娅梅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳伽希萨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>德蕾米莉娅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ミリアム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>シュブ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱染亚衣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，八相家第一位の綾目家が代々継承しているCAT。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，ナナムシルorgより出芽したナナムシルaltの片割れ。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，八相家第二位の三春家が代々管理している封紙。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，八相家第七位の狩屋家が代々継承しているCAT。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奎伊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯尔贝＝萝娅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔玛祖莎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>米莉安姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舒布</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>エンドル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ファ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>イヴァ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ザラストラ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>いぬのまもり</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬守</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>エンリケ</t>
     </r>
     <r>
       <rPr>
@@ -1861,89 +2074,433 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>モネ” 是八姐妹的第七位</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿露子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪鳴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪鸣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字，男性。大神雪鳴的名。真言的大学生活中唯一的朋友</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水小月鹿音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，部分角色对雨山かれお的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，克杖对綾目姫様的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，チノ和ミルハ对飯窪現実的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，男性，チノ对飯窪源四的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，チノ和門王水对飯窪知狡的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，男性，部分角色对真言的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓氏，男性，大神雪鳴的姓，同时真言会称呼大神雪鳴为大神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，部分角色对永久卑尊的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，夏和真言对西石貴奴的称呼方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，宮岡門王水对自己的称呼，同时也是部分角色对宮岡門王水使用的称呼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物昵称，女性，かれお对宮岡門王水的称呼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿娅梅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳伽希萨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>德蕾米莉娅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ミリアム</t>
+      <t>ファ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>恩里克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>オル</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>キラピス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基拉皮斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>古尔科蒙迈特萨希德</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>グルコモンマイトサシード</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>コモンマイトサス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四良さくや</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四良咲夜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>さくや</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咲夜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炭野ささらゑ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>塞玛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卢格尔瓦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>セマ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ルグルヴァ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ディエトロー</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪雅特洛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>テトルジャトートリセクス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰托尔贾托特里塞克斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>バダバッカナーリャグダガー</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ナルデアナ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドルミナ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>パラミアキス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕拉米亚基斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>パラミアキスフィーメイル</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>パラミアキスメイル</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖目あいる</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣目爱露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいる</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>法伊娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奥尔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ファイナ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>オル</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>フロシルカームド</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔眼の刺し手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鳥いさな</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>いさな</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>亚玛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玛亚</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	ヤーマ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マーヤー</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥栄紫波アリヰ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>アリヰ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>因八カイリ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>因八海里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>カイリ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ルナデュ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>露娜迪尤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ルー</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓氏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	リー＝ガルー</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヨォクリサリス</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミルダース</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>米尔达斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペンパラミータ：マハンイーヴァナ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭帕拉米塔：马汉伊耶瓦纳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペイルホワイト：プルミャンドゥルギャイブルーム</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩尔怀特：普尔米安德尔吉艾布罗姆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ガロー</t>
     </r>
     <r>
       <rPr>
@@ -1964,49 +2521,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>シュブ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱染亚衣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，八相家第一位の綾目家が代々継承しているCAT。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，ナナムシルorgより出芽したナナムシルaltの片割れ。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，八相家第二位の三春家が代々管理している封紙。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，八相家第七位の狩屋家が代々継承しているCAT。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>八重洲卯良</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奎伊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯尔贝＝萝娅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔玛祖莎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>米莉安姆</t>
+      <t>ツェロ</t>
     </r>
     <r>
       <rPr>
@@ -2027,13 +2542,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>舒布</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>エンドル</t>
+      <t>ルー</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>嘉露</t>
     </r>
     <r>
       <rPr>
@@ -2054,497 +2569,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ファ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>イヴァ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ザラストラ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>いぬのまもり</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>犬守</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>エンリケ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ファ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>恩里克</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>法</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>オル</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>キラピス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基拉皮斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>古尔科蒙迈特萨希德</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>グルコモンマイトサシード</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>コモンマイトサス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>四良さくや</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>四良咲夜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>さくや</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咲夜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炭野ささらゑ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>塞玛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>卢格尔瓦</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>セマ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ルグルヴァ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ディエトロー</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪雅特洛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>テトルジャトートリセクス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰托尔贾托特里塞克斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>バダバッカナーリャグダガー</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ナルデアナ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ドルミナ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>パラミアキス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕拉米亚基斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>パラミアキスフィーメイル</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>パラミアキスメイル</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>聖目あいる</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣目爱露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>あいる</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>法伊娜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>奥尔</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ファイナ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>オル</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>フロシルカームド</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔眼の刺し手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水鳥いさな</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>いさな</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>亚玛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>玛亚</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">	ヤーマ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>マーヤー</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弥栄紫波アリヰ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>アリヰ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>因八カイリ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>因八海里</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>カイリ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海里</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ルナデュ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>露娜迪尤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ルー</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓氏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	リー＝ガルー</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヨォクリサリス</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ミルダース</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>米尔达斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ペンパラミータ：マハンイーヴァナ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭帕拉米塔：马汉伊耶瓦纳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ペイルホワイト：プルミャンドゥルギャイブルーム</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔怀特：普尔米安德尔吉艾布罗姆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ガロー</t>
+      <t>赛萝</t>
     </r>
     <r>
       <rPr>
@@ -2565,7 +2590,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ツェロ</t>
+      <t>洛</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛萝洛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗洛希尔克阿姆德</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊莎莉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ヴィヴ</t>
     </r>
     <r>
       <rPr>
@@ -2586,13 +2629,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ルー</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>嘉露</t>
+      <t>アヴァ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>维芙</t>
     </r>
     <r>
       <rPr>
@@ -2613,7 +2656,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>赛萝</t>
+      <t>艾娃</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>恩多尔</t>
     </r>
     <r>
       <rPr>
@@ -2634,25 +2683,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>洛</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛萝洛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗洛希尔克阿姆德</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊莎莉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ヴィヴ</t>
+      <t>法</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词，男性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>オズマ</t>
     </r>
     <r>
       <rPr>
@@ -2673,13 +2714,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>アヴァ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>维芙</t>
+      <t>イース</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉娅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>クララ</t>
     </r>
     <r>
       <rPr>
@@ -2700,13 +2745,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>艾娃</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>恩多尔</t>
+      <t>ミルハ</t>
     </r>
     <r>
       <rPr>
@@ -2727,17 +2766,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>法</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有名词，男性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>オズマ</t>
+      <t>リデル</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>里德尔</t>
+  </si>
+  <si>
+    <t>異羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ダーカ</t>
     </r>
     <r>
       <rPr>
@@ -2758,17 +2800,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>イース</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡莉娅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>クララ</t>
+      <t>イァンナ</t>
     </r>
     <r>
       <rPr>
@@ -2789,7 +2821,44 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ミルハ</t>
+      <t>ルー</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩山克杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩山虎兎弥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	麒麟緋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	キリアケ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮加納子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎兎弥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玖威禍を留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字，女性</t>
+  </si>
+  <si>
+    <r>
+      <t>克拉拉</t>
     </r>
     <r>
       <rPr>
@@ -2810,23 +2879,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>リデル</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>德蕾米莉娅・里德尔</t>
-  </si>
-  <si>
-    <t>里德尔</t>
-  </si>
-  <si>
-    <t>異羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ダーカ</t>
+      <t>米尔哈</t>
     </r>
     <r>
       <rPr>
@@ -2847,7 +2900,61 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>イァンナ</t>
+      <t>里德尔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玖威禍留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮鬼怒子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>トウカ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字，女性，匠刀華的名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀祢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南ヶ斑道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南ヶ斑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳纳姆西尔 alt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳纳姆西尔 cat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳纳姆西尔 org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尔狄安娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Note</t>
     </r>
     <r>
       <rPr>
@@ -2868,44 +2975,61 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ルー</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩山克杖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩山虎兎弥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	麒麟緋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	キリアケ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>艮加納子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎兎弥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玖威禍を留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字，女性</t>
-  </si>
-  <si>
-    <r>
-      <t>克拉拉</t>
+      <t>Due</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰特尔加托特里斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴巴卡纳里亚格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>フハイ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペイル</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩尔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭帕拉米塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔眼杀手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛拉基塔尔希西姆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>米哈鲁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>术语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>午后一点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>伊娃</t>
     </r>
     <r>
       <rPr>
@@ -2926,7 +3050,97 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>米尔哈</t>
+      <t>查拉斯特拉</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字，女</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣月シカワネ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣月鹿和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>シカワネ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>産霊みみみ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产灵咪咪咪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炭野笹良惠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖止睦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁止睦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>睦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科蒙迈特萨斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮加纳子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鸟伊纱奈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊纱奈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジャバンダスウォナッチァ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀祢吏子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕拉米亚基斯female</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕拉米亚基斯male</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>纳尔德亚娜</t>
     </r>
     <r>
       <rPr>
@@ -2947,61 +3161,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>里德尔</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玖威禍留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>艮鬼怒子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>トウカ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字，女性，匠刀華的名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀祢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南ヶ斑道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南ヶ斑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳纳姆西尔 alt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳纳姆西尔 cat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳纳姆西尔 org</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳尔狄安娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Note</t>
+      <t>多尔米纳</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百雹カゲロヲ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百雹影露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>カゲロヲ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>影露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴达巴卡纳里亚格达戈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥栄紫波爱理依</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱理依</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>约克利萨里斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李＝伽洛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ロヴェス</t>
     </r>
     <r>
       <rPr>
@@ -3022,61 +3224,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Due</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰特尔加托特里斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴巴卡纳里亚格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>フハイ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ペイル</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭帕拉米塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔眼杀手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玛拉基塔尔希西姆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>米哈鲁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>术语</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>午后一点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>伊娃</t>
+      <t>ネヘハ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>罗薇斯</t>
     </r>
     <r>
       <rPr>
@@ -3097,101 +3251,77 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>查拉斯特拉</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字，女</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣月シカワネ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣月鹿和</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>シカワネ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿和</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>産霊みみみ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产灵咪咪咪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炭野笹良惠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰野笹子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金城華</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金城华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鎖止睦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁止睦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>睦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>科蒙迈特萨斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>艮加纳子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水鸟伊纱奈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊纱奈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ジャバンダスウォナッチァ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀祢吏子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕拉米亚基斯female</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕拉米亚基斯male</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>纳尔德亚娜</t>
+      <t>内赫哈</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハ矢士未口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽矢士未口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハ矢士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽矢士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木辛アスミ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日美</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木辛明日美</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>アスミ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圭木イノ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圭木祈乃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>イノ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈乃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰野纱纱子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八重洲里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>德蕾米莉娅</t>
     </r>
     <r>
       <rPr>
@@ -3212,49 +3342,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>多尔米纳</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>百雹カゲロヲ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>百雹影露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>カゲロヲ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>影露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴达巴卡纳里亚格达戈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弥栄紫波爱理依</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱理依</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>约克利萨里斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李＝伽洛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ロヴェス</t>
+      <t>里德尔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ドレミリア</t>
     </r>
     <r>
       <rPr>
@@ -3275,91 +3369,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ネヘハ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>罗薇斯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>内赫哈</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>華</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ハ矢士未口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽矢士未口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ハ矢士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽矢士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>木辛アスミ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>明日美</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>木辛明日美</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>アスミ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>圭木イノ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>圭木祈乃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>イノ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈乃</t>
+      <t>リデル</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3784,10 +3795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E228"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3820,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -3836,7 +3847,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3845,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -3857,7 +3868,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -3872,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -3884,7 +3895,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -3893,10 +3904,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -3908,7 +3919,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -3968,7 +3979,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -4040,7 +4051,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -4100,7 +4111,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -4124,7 +4135,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -4172,52 +4183,52 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>341</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>422</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>77</v>
@@ -4229,46 +4240,46 @@
         <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="B39" s="2" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -4280,31 +4291,31 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>333</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -4313,190 +4324,190 @@
         <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="B45" s="2" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>515</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>428</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>433</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>444</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>444</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -4508,43 +4519,43 @@
         <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>315</v>
+        <v>86</v>
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>6</v>
+        <v>314</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -4553,34 +4564,34 @@
         <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>425</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>436</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>435</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>442</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>441</v>
+        <v>121</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -4592,19 +4603,19 @@
         <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -4613,7 +4624,7 @@
         <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>127</v>
@@ -4625,7 +4636,7 @@
         <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>129</v>
@@ -4634,37 +4645,37 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>439</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>445</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>448</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -4673,10 +4684,10 @@
         <v>135</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -4685,10 +4696,10 @@
         <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -4697,46 +4708,46 @@
         <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>141</v>
+        <v>429</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>141</v>
+        <v>441</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="B77" s="2" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>6</v>
+        <v>316</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -4748,16 +4759,16 @@
         <v>146</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>148</v>
+        <v>466</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>149</v>
@@ -4766,22 +4777,22 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>374</v>
+        <v>150</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>44</v>
@@ -4790,46 +4801,46 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>437</v>
+        <v>151</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>154</v>
+        <v>443</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>154</v>
+        <v>443</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>6</v>
@@ -4838,10 +4849,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>443</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>489</v>
+        <v>176</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>6</v>
@@ -4850,13 +4861,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -4865,22 +4876,22 @@
         <v>157</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>331</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -4904,7 +4915,7 @@
         <v>165</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -4916,76 +4927,76 @@
         <v>167</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>172</v>
+        <v>444</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>173</v>
+        <v>445</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>6</v>
+        <v>446</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>450</v>
+        <v>172</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>451</v>
+        <v>173</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>452</v>
+        <v>174</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>359</v>
+        <v>178</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>179</v>
@@ -4997,55 +5008,55 @@
         <v>180</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>190</v>
+        <v>455</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>191</v>
@@ -5057,103 +5068,103 @@
         <v>192</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>461</v>
+        <v>193</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>193</v>
+        <v>318</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>194</v>
+        <v>447</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>195</v>
+        <v>447</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>453</v>
+        <v>194</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>453</v>
+        <v>195</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
-        <v>196</v>
+        <v>518</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>435</v>
+        <v>345</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>201</v>
+        <v>448</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>455</v>
+        <v>344</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>202</v>
@@ -5165,7 +5176,7 @@
         <v>203</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>348</v>
+        <v>203</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>204</v>
@@ -5180,52 +5191,52 @@
         <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>208</v>
+        <v>450</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>44</v>
@@ -5234,10 +5245,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>44</v>
@@ -5246,13 +5257,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="D121" s="2"/>
     </row>
@@ -5261,46 +5272,46 @@
         <v>215</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>216</v>
+        <v>453</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>459</v>
+        <v>216</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="D125" s="2"/>
     </row>
@@ -5312,19 +5323,19 @@
         <v>221</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="D127" s="2"/>
     </row>
@@ -5336,7 +5347,7 @@
         <v>226</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="D128" s="2"/>
     </row>
@@ -5348,43 +5359,43 @@
         <v>228</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -5396,19 +5407,19 @@
         <v>237</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="D134" s="2"/>
     </row>
@@ -5420,7 +5431,7 @@
         <v>242</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -5429,10 +5440,10 @@
         <v>243</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D136" s="2"/>
     </row>
@@ -5441,7 +5452,7 @@
         <v>245</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>245</v>
+        <v>456</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>246</v>
@@ -5453,55 +5464,55 @@
         <v>247</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>462</v>
+        <v>247</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>252</v>
+        <v>86</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>463</v>
+        <v>253</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>44</v>
@@ -5510,19 +5521,19 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>257</v>
@@ -5534,49 +5545,49 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>464</v>
+        <v>266</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>465</v>
+        <v>267</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="D148" s="2"/>
     </row>
@@ -5585,34 +5596,34 @@
         <v>268</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>270</v>
+        <v>394</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>399</v>
+        <v>272</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>467</v>
+        <v>273</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D151" s="2"/>
     </row>
@@ -5621,31 +5632,31 @@
         <v>274</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>275</v>
+        <v>462</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>279</v>
@@ -5657,7 +5668,7 @@
         <v>280</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>335</v>
+        <v>463</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>281</v>
@@ -5669,7 +5680,7 @@
         <v>282</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>469</v>
+        <v>282</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>283</v>
@@ -5684,19 +5695,19 @@
         <v>284</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>285</v>
+        <v>6</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -5705,82 +5716,82 @@
         <v>287</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D165" s="2"/>
     </row>
@@ -5789,46 +5800,46 @@
         <v>301</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A168" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A169" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>327</v>
+        <v>6</v>
       </c>
       <c r="D169" s="2"/>
     </row>
@@ -5837,7 +5848,7 @@
         <v>305</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>306</v>
+        <v>516</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>6</v>
@@ -5846,175 +5857,175 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>308</v>
+        <v>464</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>310</v>
+        <v>465</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>470</v>
+        <v>309</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>470</v>
+        <v>309</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>471</v>
+        <v>310</v>
       </c>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>312</v>
+        <v>468</v>
       </c>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>474</v>
+        <v>359</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="C177" t="s">
+        <v>86</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="C178" t="s">
-        <v>88</v>
+        <v>440</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C179" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C180" t="s">
-        <v>446</v>
+        <v>6</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>478</v>
+        <v>363</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>364</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>367</v>
+        <v>478</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="C182" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C183" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C184" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -6023,43 +6034,43 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>508</v>
+        <v>365</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>509</v>
+        <v>366</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C187" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -6068,31 +6079,30 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>377</v>
+        <v>485</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C190" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>492</v>
+        <v>374</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D191" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>481</v>
+        <v>375</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -6100,10 +6110,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -6111,105 +6121,105 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C194" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>385</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>386</v>
+        <v>490</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>501</v>
+        <v>491</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
-        <v>499</v>
+        <v>382</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C199" t="s">
-        <v>6</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>389</v>
+        <v>487</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>493</v>
+        <v>386</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C202" t="s">
-        <v>6</v>
+        <v>488</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>495</v>
+        <v>388</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -6217,10 +6227,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -6228,29 +6238,29 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C206" t="s">
-        <v>6</v>
+        <v>421</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>426</v>
+        <v>483</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -6258,32 +6268,32 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>491</v>
+        <v>397</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C210" t="s">
-        <v>88</v>
+        <v>495</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>6</v>
@@ -6291,43 +6301,43 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>503</v>
+        <v>402</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A214" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A215" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>6</v>
@@ -6335,97 +6345,97 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>6</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>414</v>
+        <v>498</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>504</v>
+        <v>413</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>88</v>
+        <v>415</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>422</v>
+        <v>504</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>409</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C224" t="s">
-        <v>414</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -6433,10 +6443,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -6444,23 +6454,12 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C228" t="s">
         <v>6</v>
       </c>
     </row>
